--- a/analysis/chla_2.1_wel.xlsx
+++ b/analysis/chla_2.1_wel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunnigan_S\OneDrive - Florida Department of Environmental Protection\OPEN_PROJECTS\chla-nerrs-catalyst\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://floridadep-my.sharepoint.com/personal/shannon_dunnigan_dep_state_fl_us/Documents/OPEN_PROJECTS/chla-nerrs-catalyst/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{985A4D4E-F444-48E0-A48B-E33996154E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7E844A2B-E84E-4604-BF2C-9F7B33257F92}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="6_{985A4D4E-F444-48E0-A48B-E33996154E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D71A3802-F9DA-418B-B03C-B20C55E7A461}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="63">
   <si>
     <t>sample_no</t>
   </si>
@@ -212,21 +212,41 @@
   <si>
     <t>&lt;1&gt;</t>
   </si>
+  <si>
+    <t>sample cloudy</t>
+  </si>
+  <si>
+    <t>welinwq071221</t>
+  </si>
+  <si>
+    <t>welinwq081221</t>
+  </si>
+  <si>
+    <t>&lt;-3&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy\ h:mm"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy\ h:mm"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -322,64 +342,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +621,8 @@
   <dimension ref="A1:AK999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X40" sqref="X40:X49"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z39" sqref="Z39:Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4711,7 +4734,7 @@
         <v>16.89</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA38" s="9">
         <v>7.92</v>
@@ -4820,7 +4843,7 @@
         <v>16.61</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA39" s="9">
         <v>8.2200000000000006</v>
@@ -4931,7 +4954,7 @@
         <v>16.09</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA40" s="9">
         <v>7.59</v>
@@ -5042,7 +5065,7 @@
         <v>16.61</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA41" s="9">
         <v>7.97</v>
@@ -5153,7 +5176,7 @@
         <v>16.63</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA42" s="9">
         <v>7.4</v>
@@ -5264,7 +5287,7 @@
         <v>16.59</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA43" s="9">
         <v>7.29</v>
@@ -5375,7 +5398,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA44" s="9">
         <v>6.98</v>
@@ -5484,7 +5507,7 @@
         <v>16.440000000000001</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA45" s="9">
         <v>8.7100000000000009</v>
@@ -5593,7 +5616,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA46" s="9">
         <v>8.52</v>
@@ -5704,7 +5727,7 @@
         <v>17.25</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA47" s="9">
         <v>7.19</v>
@@ -5813,7 +5836,7 @@
         <v>17.079999999999998</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA48" s="9">
         <v>6.99</v>
@@ -5924,7 +5947,7 @@
         <v>17.88</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AA49" s="9">
         <v>7.56</v>
@@ -8535,50 +8558,2640 @@
       </c>
     </row>
     <row r="74" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="31">
+        <v>7</v>
+      </c>
+      <c r="C74" s="31">
+        <v>1</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="32">
+        <v>44398.375</v>
+      </c>
+      <c r="G74" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H74" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I74" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J74" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M74" s="9">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" s="9">
+        <v>47.345199999999998</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>30.86</v>
+      </c>
+      <c r="R74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S74" s="9">
+        <v>84.4</v>
+      </c>
+      <c r="T74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U74" s="9">
+        <v>6.83</v>
+      </c>
+      <c r="V74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W74" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="X74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>7.81</v>
+      </c>
+      <c r="Z74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA74" s="9">
+        <v>3.51</v>
+      </c>
+      <c r="AB74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC74" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AD74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="AF74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG74" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="AH74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI74" s="9">
+        <v>8.86</v>
+      </c>
+      <c r="AJ74" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK74" s="31" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="75" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="31">
+        <v>7</v>
+      </c>
+      <c r="C75" s="31">
+        <v>2</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="32">
+        <v>44398.46875</v>
+      </c>
+      <c r="G75" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H75" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I75" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J75" s="31">
+        <v>2.46</v>
+      </c>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M75" s="9">
+        <v>19.568999999999999</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="9">
+        <v>46.335500000000003</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>30.13</v>
+      </c>
+      <c r="R75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S75" s="9">
+        <v>116.5</v>
+      </c>
+      <c r="T75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U75" s="9">
+        <v>8.94</v>
+      </c>
+      <c r="V75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W75" s="9">
+        <v>3.1E-2</v>
+      </c>
+      <c r="X75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y75" s="9">
+        <v>7.97</v>
+      </c>
+      <c r="Z75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA75" s="9">
+        <v>3.12</v>
+      </c>
+      <c r="AB75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC75" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE75" s="9">
+        <v>3.38</v>
+      </c>
+      <c r="AF75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG75" s="9">
+        <v>3.04</v>
+      </c>
+      <c r="AH75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI75" s="9">
+        <v>9.48</v>
+      </c>
+      <c r="AJ75" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK75" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="31">
+        <v>7</v>
+      </c>
+      <c r="C76" s="31">
+        <v>3</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="32">
+        <v>44398.5625</v>
+      </c>
+      <c r="G76" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H76" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I76" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J76" s="31">
+        <v>2.36</v>
+      </c>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="9">
+        <v>21.440999999999999</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" s="9">
+        <v>43.407299999999999</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>28.01</v>
+      </c>
+      <c r="R76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S76" s="9">
+        <v>91.5</v>
+      </c>
+      <c r="T76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U76" s="9">
+        <v>6.87</v>
+      </c>
+      <c r="V76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W76" s="9">
+        <v>-1.304</v>
+      </c>
+      <c r="X76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y76" s="9">
+        <v>7.72</v>
+      </c>
+      <c r="Z76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA76" s="9">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="AB76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC76" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AD76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE76" s="9">
+        <v>2.34</v>
+      </c>
+      <c r="AF76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG76" s="9">
+        <v>7.98</v>
+      </c>
+      <c r="AH76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI76" s="9">
+        <v>24.37</v>
+      </c>
+      <c r="AJ76" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK76" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="31">
+        <v>7</v>
+      </c>
+      <c r="C77" s="31">
+        <v>4</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="32">
+        <v>44398.65625</v>
+      </c>
+      <c r="G77" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H77" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I77" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J77" s="31">
+        <v>2.12</v>
+      </c>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="9">
+        <v>18.37</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="9">
+        <v>45.320099999999996</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>29.4</v>
+      </c>
+      <c r="R77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S77" s="9">
+        <v>97.5</v>
+      </c>
+      <c r="T77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U77" s="9">
+        <v>7.68</v>
+      </c>
+      <c r="V77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W77" s="9">
+        <v>-0.91800000000000004</v>
+      </c>
+      <c r="X77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y77" s="9">
+        <v>7.86</v>
+      </c>
+      <c r="Z77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA77" s="9">
+        <v>3.78</v>
+      </c>
+      <c r="AB77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC77" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="AD77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE77" s="9">
+        <v>4.78</v>
+      </c>
+      <c r="AF77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG77" s="9">
+        <v>3.76</v>
+      </c>
+      <c r="AH77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI77" s="9">
+        <v>11.67</v>
+      </c>
+      <c r="AJ77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK77" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="31">
+        <v>7</v>
+      </c>
+      <c r="C78" s="31">
+        <v>5</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="32">
+        <v>44398.75</v>
+      </c>
+      <c r="G78" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H78" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I78" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J78" s="31">
+        <v>1.79</v>
+      </c>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="9">
+        <v>16.998000000000001</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" s="9">
+        <v>47.245100000000001</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q78" s="9">
+        <v>30.79</v>
+      </c>
+      <c r="R78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S78" s="9">
+        <v>109.6</v>
+      </c>
+      <c r="T78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U78" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="V78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W78" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="X78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y78" s="9">
+        <v>7.95</v>
+      </c>
+      <c r="Z78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA78" s="9">
+        <v>2.96</v>
+      </c>
+      <c r="AB78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC78" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE78" s="9">
+        <v>4.66</v>
+      </c>
+      <c r="AF78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG78" s="9">
+        <v>1.82</v>
+      </c>
+      <c r="AH78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI78" s="9">
+        <v>5.81</v>
+      </c>
+      <c r="AJ78" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK78" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="31">
+        <v>7</v>
+      </c>
+      <c r="C79" s="31">
+        <v>6</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="32">
+        <v>44398.84375</v>
+      </c>
+      <c r="G79" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H79" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I79" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J79" s="31">
+        <v>1.73</v>
+      </c>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="9">
+        <v>16.126000000000001</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O79" s="9">
+        <v>47.381900000000002</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q79" s="9">
+        <v>30.88</v>
+      </c>
+      <c r="R79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S79" s="9">
+        <v>104.4</v>
+      </c>
+      <c r="T79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U79" s="9">
+        <v>8.52</v>
+      </c>
+      <c r="V79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W79" s="9">
+        <v>1.768</v>
+      </c>
+      <c r="X79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y79" s="9">
+        <v>7.93</v>
+      </c>
+      <c r="Z79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA79" s="9">
+        <v>1.71</v>
+      </c>
+      <c r="AB79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC79" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="AD79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE79" s="9">
+        <v>3.79</v>
+      </c>
+      <c r="AF79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG79" s="9">
+        <v>5.43</v>
+      </c>
+      <c r="AH79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI79" s="9">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="AJ79" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK79" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="31">
+        <v>7</v>
+      </c>
+      <c r="C80" s="31">
+        <v>7</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="32">
+        <v>44398.9375</v>
+      </c>
+      <c r="G80" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H80" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I80" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J80" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="9">
+        <v>16.765000000000001</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O80" s="9">
+        <v>47.199100000000001</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q80" s="9">
+        <v>30.75</v>
+      </c>
+      <c r="R80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S80" s="9">
+        <v>98.2</v>
+      </c>
+      <c r="T80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U80" s="9">
+        <v>7.92</v>
+      </c>
+      <c r="V80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W80" s="9">
+        <v>1.179</v>
+      </c>
+      <c r="X80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y80" s="9">
+        <v>7.88</v>
+      </c>
+      <c r="Z80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA80" s="9">
+        <v>49.03</v>
+      </c>
+      <c r="AB80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC80" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE80" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="AF80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG80" s="9">
+        <v>1.18</v>
+      </c>
+      <c r="AH80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI80" s="9">
+        <v>3.88</v>
+      </c>
+      <c r="AJ80" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK80" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="31">
+        <v>7</v>
+      </c>
+      <c r="C81" s="31">
+        <v>8</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" s="32">
+        <v>44399.03125</v>
+      </c>
+      <c r="G81" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H81" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I81" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J81" s="31">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="9">
+        <v>18.353999999999999</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" s="9">
+        <v>45.238900000000001</v>
+      </c>
+      <c r="P81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>29.34</v>
+      </c>
+      <c r="R81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S81" s="9">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U81" s="9">
+        <v>5.68</v>
+      </c>
+      <c r="V81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W81" s="9">
+        <v>-0.69199999999999995</v>
+      </c>
+      <c r="X81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y81" s="9">
+        <v>7.55</v>
+      </c>
+      <c r="Z81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA81" s="9">
+        <v>3.84</v>
+      </c>
+      <c r="AB81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC81" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE81" s="9">
+        <v>2.99</v>
+      </c>
+      <c r="AF81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG81" s="9">
+        <v>7.45</v>
+      </c>
+      <c r="AH81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI81" s="9">
+        <v>22.77</v>
+      </c>
+      <c r="AJ81" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK81" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="31">
+        <v>7</v>
+      </c>
+      <c r="C82" s="31">
+        <v>9</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" s="32">
+        <v>44399.125</v>
+      </c>
+      <c r="G82" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H82" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I82" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J82" s="31">
+        <v>1.6</v>
+      </c>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="9">
+        <v>18.635000000000002</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="9">
+        <v>44.163800000000002</v>
+      </c>
+      <c r="P82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>28.57</v>
+      </c>
+      <c r="R82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S82" s="9">
+        <v>62</v>
+      </c>
+      <c r="T82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U82" s="9">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="V82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W82" s="9">
+        <v>-1.679</v>
+      </c>
+      <c r="X82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y82" s="9">
+        <v>7.43</v>
+      </c>
+      <c r="Z82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA82" s="9">
+        <v>5.51</v>
+      </c>
+      <c r="AB82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC82" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE82" s="9">
+        <v>4.51</v>
+      </c>
+      <c r="AF82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG82" s="9">
+        <v>9.15</v>
+      </c>
+      <c r="AH82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI82" s="9">
+        <v>27.89</v>
+      </c>
+      <c r="AJ82" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK82" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="31">
+        <v>7</v>
+      </c>
+      <c r="C83" s="31">
+        <v>10</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="32">
+        <v>44399.21875</v>
+      </c>
+      <c r="G83" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H83" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I83" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J83" s="31">
+        <v>1.84</v>
+      </c>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="9">
+        <v>17.853000000000002</v>
+      </c>
+      <c r="N83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" s="9">
+        <v>43.9758</v>
+      </c>
+      <c r="P83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q83" s="9">
+        <v>28.43</v>
+      </c>
+      <c r="R83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S83" s="9">
+        <v>72.2</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U83" s="9">
+        <v>5.78</v>
+      </c>
+      <c r="V83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W83" s="9">
+        <v>-0.83899999999999997</v>
+      </c>
+      <c r="X83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y83" s="9">
+        <v>7.63</v>
+      </c>
+      <c r="Z83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA83" s="9">
+        <v>4.22</v>
+      </c>
+      <c r="AB83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC83" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE83" s="9">
+        <v>5.44</v>
+      </c>
+      <c r="AF83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG83" s="9">
+        <v>9.51</v>
+      </c>
+      <c r="AH83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI83" s="9">
+        <v>28.99</v>
+      </c>
+      <c r="AJ83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK83" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="31">
+        <v>7</v>
+      </c>
+      <c r="C84" s="31">
+        <v>11</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" s="32">
+        <v>44399.3125</v>
+      </c>
+      <c r="G84" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H84" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I84" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J84" s="31">
+        <v>2.14</v>
+      </c>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="9">
+        <v>16.385999999999999</v>
+      </c>
+      <c r="N84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O84" s="9">
+        <v>46.884399999999999</v>
+      </c>
+      <c r="P84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q84" s="9">
+        <v>30.52</v>
+      </c>
+      <c r="R84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S84" s="9">
+        <v>102.8</v>
+      </c>
+      <c r="T84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U84" s="9">
+        <v>8.36</v>
+      </c>
+      <c r="V84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W84" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="X84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y84" s="9">
+        <v>7.91</v>
+      </c>
+      <c r="Z84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA84" s="9">
+        <v>3.36</v>
+      </c>
+      <c r="AB84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC84" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="AD84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE84" s="9">
+        <v>2.93</v>
+      </c>
+      <c r="AF84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG84" s="9">
+        <v>1.62</v>
+      </c>
+      <c r="AH84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI84" s="9">
+        <v>5.19</v>
+      </c>
+      <c r="AJ84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK84" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="31">
+        <v>7</v>
+      </c>
+      <c r="C85" s="31">
+        <v>12</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" s="32">
+        <v>44399.40625</v>
+      </c>
+      <c r="G85" s="32">
+        <v>44399.479166666664</v>
+      </c>
+      <c r="H85" s="32">
+        <v>44413.541666666664</v>
+      </c>
+      <c r="I85" s="32">
+        <v>44414.604166666664</v>
+      </c>
+      <c r="J85" s="31">
+        <v>2.34</v>
+      </c>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="9">
+        <v>16.760999999999999</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O85" s="9">
+        <v>46.814599999999999</v>
+      </c>
+      <c r="P85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>30.47</v>
+      </c>
+      <c r="R85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S85" s="9">
+        <v>106.9</v>
+      </c>
+      <c r="T85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U85" s="9">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="V85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W85" s="9">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="X85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y85" s="9">
+        <v>7.94</v>
+      </c>
+      <c r="Z85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA85" s="9">
+        <v>1.93</v>
+      </c>
+      <c r="AB85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC85" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="AD85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE85" s="9">
+        <v>3.72</v>
+      </c>
+      <c r="AF85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG85" s="9">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AH85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI85" s="9">
+        <v>6.44</v>
+      </c>
+      <c r="AJ85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK85" s="31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="31">
+        <v>8</v>
+      </c>
+      <c r="C86" s="31">
+        <v>1</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="33">
+        <v>44433.364583333336</v>
+      </c>
+      <c r="G86" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H86" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I86" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J86" s="9">
+        <v>29.1</v>
+      </c>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="9">
+        <v>19.841000000000001</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="9">
+        <v>42.176900000000003</v>
+      </c>
+      <c r="P86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>27.14</v>
+      </c>
+      <c r="R86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S86" s="9">
+        <v>83.5</v>
+      </c>
+      <c r="T86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U86" s="9">
+        <v>6.49</v>
+      </c>
+      <c r="V86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W86" s="9">
+        <v>-0.83399999999999996</v>
+      </c>
+      <c r="X86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y86" s="9">
+        <v>7.65</v>
+      </c>
+      <c r="Z86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA86" s="9">
+        <v>2.95</v>
+      </c>
+      <c r="AB86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC86" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="AD86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE86" s="9">
+        <v>2.39</v>
+      </c>
+      <c r="AF86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG86" s="9">
+        <v>12.41</v>
+      </c>
+      <c r="AH86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI86" s="9">
+        <v>37.409999999999997</v>
+      </c>
+      <c r="AJ86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK86" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="31">
+        <v>8</v>
+      </c>
+      <c r="C87" s="31">
+        <v>2</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="33">
+        <v>44433.458333333336</v>
+      </c>
+      <c r="G87" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H87" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I87" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J87" s="9">
+        <v>52</v>
+      </c>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="9">
+        <v>19.413</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O87" s="9">
+        <v>45.4071</v>
+      </c>
+      <c r="P87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>29.46</v>
+      </c>
+      <c r="R87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S87" s="9">
+        <v>103.3</v>
+      </c>
+      <c r="T87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U87" s="9">
+        <v>7.98</v>
+      </c>
+      <c r="V87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W87" s="9">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="X87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y87" s="9">
+        <v>7.86</v>
+      </c>
+      <c r="Z87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA87" s="9">
+        <v>2.84</v>
+      </c>
+      <c r="AB87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC87" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="AD87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE87" s="9">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AF87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG87" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="AH87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI87" s="9">
+        <v>5.86</v>
+      </c>
+      <c r="AJ87" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK87" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="31">
+        <v>8</v>
+      </c>
+      <c r="C88" s="31">
+        <v>3</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" s="33">
+        <v>44433.552083333336</v>
+      </c>
+      <c r="G88" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H88" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I88" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J88" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="9">
+        <v>19.460999999999999</v>
+      </c>
+      <c r="N88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O88" s="9">
+        <v>45.081499999999998</v>
+      </c>
+      <c r="P88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q88" s="9">
+        <v>29.23</v>
+      </c>
+      <c r="R88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S88" s="9">
+        <v>104.7</v>
+      </c>
+      <c r="T88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U88" s="9">
+        <v>8.09</v>
+      </c>
+      <c r="V88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W88" s="9">
+        <v>1.444</v>
+      </c>
+      <c r="X88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y88" s="9">
+        <v>7.87</v>
+      </c>
+      <c r="Z88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA88" s="9">
+        <v>2.38</v>
+      </c>
+      <c r="AB88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC88" s="9">
+        <v>0.62</v>
+      </c>
+      <c r="AD88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE88" s="9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AF88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG88" s="9">
+        <v>1.78</v>
+      </c>
+      <c r="AH88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI88" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="AJ88" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK88" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="31">
+        <v>8</v>
+      </c>
+      <c r="C89" s="31">
+        <v>4</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="33">
+        <v>44433.645833333336</v>
+      </c>
+      <c r="G89" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H89" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I89" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J89" s="9">
+        <v>63.1</v>
+      </c>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="9">
+        <v>21.192</v>
+      </c>
+      <c r="N89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O89" s="9">
+        <v>44.817500000000003</v>
+      </c>
+      <c r="P89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q89" s="9">
+        <v>29.03</v>
+      </c>
+      <c r="R89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S89" s="9">
+        <v>107.5</v>
+      </c>
+      <c r="T89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U89" s="9">
+        <v>8.06</v>
+      </c>
+      <c r="V89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W89" s="9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="X89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y89" s="9">
+        <v>7.84</v>
+      </c>
+      <c r="Z89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA89" s="9">
+        <v>1.61</v>
+      </c>
+      <c r="AB89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC89" s="9">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AD89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE89" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AF89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG89" s="9">
+        <v>2.09</v>
+      </c>
+      <c r="AH89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI89" s="9">
+        <v>6.43</v>
+      </c>
+      <c r="AJ89" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK89" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="31">
+        <v>8</v>
+      </c>
+      <c r="C90" s="31">
+        <v>5</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="33">
+        <v>44433.739583333336</v>
+      </c>
+      <c r="G90" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H90" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I90" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J90" s="9">
+        <v>54.2</v>
+      </c>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="9">
+        <v>23.596</v>
+      </c>
+      <c r="N90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O90" s="9">
+        <v>41.595599999999997</v>
+      </c>
+      <c r="P90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q90" s="9">
+        <v>26.68</v>
+      </c>
+      <c r="R90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S90" s="9">
+        <v>94.3</v>
+      </c>
+      <c r="T90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U90" s="9">
+        <v>6.86</v>
+      </c>
+      <c r="V90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W90" s="9">
+        <v>-1.012</v>
+      </c>
+      <c r="X90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y90" s="9">
+        <v>7.66</v>
+      </c>
+      <c r="Z90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA90" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="AB90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC90" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="AD90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE90" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="AF90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG90" s="9">
+        <v>12.11</v>
+      </c>
+      <c r="AH90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI90" s="9">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="AJ90" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK90" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="31">
+        <v>8</v>
+      </c>
+      <c r="C91" s="31">
+        <v>6</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" s="33">
+        <v>44433.833333333336</v>
+      </c>
+      <c r="G91" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H91" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I91" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J91" s="9">
+        <v>36.9</v>
+      </c>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="9">
+        <v>23.6</v>
+      </c>
+      <c r="N91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" s="9">
+        <v>41.592100000000002</v>
+      </c>
+      <c r="P91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q91" s="9">
+        <v>26.68</v>
+      </c>
+      <c r="R91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S91" s="9">
+        <v>72</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U91" s="9">
+        <v>5.24</v>
+      </c>
+      <c r="V91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W91" s="9">
+        <v>-1.2310000000000001</v>
+      </c>
+      <c r="X91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y91" s="9">
+        <v>7.54</v>
+      </c>
+      <c r="Z91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA91" s="9">
+        <v>2.11</v>
+      </c>
+      <c r="AB91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC91" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE91" s="9">
+        <v>2.78</v>
+      </c>
+      <c r="AF91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG91" s="9">
+        <v>12.14</v>
+      </c>
+      <c r="AH91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI91" s="9">
+        <v>36.61</v>
+      </c>
+      <c r="AJ91" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK91" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="31">
+        <v>8</v>
+      </c>
+      <c r="C92" s="31">
+        <v>7</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="33">
+        <v>44433.927083333336</v>
+      </c>
+      <c r="G92" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H92" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I92" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J92" s="9">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="9">
+        <v>20.902000000000001</v>
+      </c>
+      <c r="N92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O92" s="9">
+        <v>44.194899999999997</v>
+      </c>
+      <c r="P92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q92" s="9">
+        <v>28.58</v>
+      </c>
+      <c r="R92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S92" s="9">
+        <v>105.4</v>
+      </c>
+      <c r="T92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U92" s="9">
+        <v>7.96</v>
+      </c>
+      <c r="V92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W92" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="X92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y92" s="9">
+        <v>7.86</v>
+      </c>
+      <c r="Z92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA92" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="AB92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC92" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="AD92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE92" s="9">
+        <v>3.62</v>
+      </c>
+      <c r="AF92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG92" s="9">
+        <v>3.35</v>
+      </c>
+      <c r="AH92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI92" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AJ92" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK92" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="31">
+        <v>8</v>
+      </c>
+      <c r="C93" s="31">
+        <v>8</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" s="33">
+        <v>44434.020833333336</v>
+      </c>
+      <c r="G93" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H93" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I93" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J93" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="9">
+        <v>19.212</v>
+      </c>
+      <c r="N93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O93" s="9">
+        <v>45.052999999999997</v>
+      </c>
+      <c r="P93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q93" s="9">
+        <v>29.21</v>
+      </c>
+      <c r="R93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S93" s="9">
+        <v>100.8</v>
+      </c>
+      <c r="T93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U93" s="9">
+        <v>7.83</v>
+      </c>
+      <c r="V93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W93" s="9">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="X93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y93" s="9">
+        <v>7.84</v>
+      </c>
+      <c r="Z93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA93" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC93" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="AD93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE93" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG93" s="9">
+        <v>1.99</v>
+      </c>
+      <c r="AH93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI93" s="9">
+        <v>6.11</v>
+      </c>
+      <c r="AJ93" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK93" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="31">
+        <v>8</v>
+      </c>
+      <c r="C94" s="31">
+        <v>9</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" s="33">
+        <v>44434.114583333336</v>
+      </c>
+      <c r="G94" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H94" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I94" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J94" s="9">
+        <v>56.9</v>
+      </c>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="9">
+        <v>18.815000000000001</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O94" s="9">
+        <v>45.218600000000002</v>
+      </c>
+      <c r="P94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>29.33</v>
+      </c>
+      <c r="R94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S94" s="9">
+        <v>88.5</v>
+      </c>
+      <c r="T94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U94" s="9">
+        <v>6.92</v>
+      </c>
+      <c r="V94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W94" s="9">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="X94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y94" s="9">
+        <v>7.76</v>
+      </c>
+      <c r="Z94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA94" s="9">
+        <v>1.22</v>
+      </c>
+      <c r="AB94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC94" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="AD94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE94" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="AF94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG94" s="9">
+        <v>2.19</v>
+      </c>
+      <c r="AH94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI94" s="9">
+        <v>6.73</v>
+      </c>
+      <c r="AJ94" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK94" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="31">
+        <v>8</v>
+      </c>
+      <c r="C95" s="31">
+        <v>10</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" s="33">
+        <v>44434.208333333336</v>
+      </c>
+      <c r="G95" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H95" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I95" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J95" s="9">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="9">
+        <v>20.422999999999998</v>
+      </c>
+      <c r="N95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O95" s="9">
+        <v>43.520800000000001</v>
+      </c>
+      <c r="P95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>28.1</v>
+      </c>
+      <c r="R95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S95" s="9">
+        <v>81.7</v>
+      </c>
+      <c r="T95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U95" s="9">
+        <v>6.24</v>
+      </c>
+      <c r="V95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W95" s="9">
+        <v>-0.30299999999999999</v>
+      </c>
+      <c r="X95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y95" s="9">
+        <v>7.69</v>
+      </c>
+      <c r="Z95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA95" s="9">
+        <v>2.64</v>
+      </c>
+      <c r="AB95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC95" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="AD95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE95" s="9">
+        <v>2.71</v>
+      </c>
+      <c r="AF95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG95" s="9">
+        <v>6.87</v>
+      </c>
+      <c r="AH95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI95" s="9">
+        <v>20.78</v>
+      </c>
+      <c r="AJ95" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK95" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="31">
+        <v>8</v>
+      </c>
+      <c r="C96" s="31">
+        <v>11</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="33">
+        <v>44434.302083333336</v>
+      </c>
+      <c r="G96" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H96" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I96" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J96" s="9">
+        <v>54.9</v>
+      </c>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="9">
+        <v>20.738</v>
+      </c>
+      <c r="N96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O96" s="9">
+        <v>41.796100000000003</v>
+      </c>
+      <c r="P96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>26.86</v>
+      </c>
+      <c r="R96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S96" s="9">
+        <v>51.4</v>
+      </c>
+      <c r="T96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U96" s="9">
+        <v>3.93</v>
+      </c>
+      <c r="V96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W96" s="9">
+        <v>-1.335</v>
+      </c>
+      <c r="X96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y96" s="9">
+        <v>7.34</v>
+      </c>
+      <c r="Z96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA96" s="9">
+        <v>4.22</v>
+      </c>
+      <c r="AB96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC96" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="AD96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE96" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="AF96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG96" s="9">
+        <v>26.08</v>
+      </c>
+      <c r="AH96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI96" s="9">
+        <v>78.459999999999994</v>
+      </c>
+      <c r="AJ96" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK96" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="31">
+        <v>8</v>
+      </c>
+      <c r="C97" s="31">
+        <v>12</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E97" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" s="33">
+        <v>44434.395833333336</v>
+      </c>
+      <c r="G97" s="33">
+        <v>44434.5</v>
+      </c>
+      <c r="H97" s="32">
+        <v>44476.458333333336</v>
+      </c>
+      <c r="I97" s="33">
+        <v>44477.5625</v>
+      </c>
+      <c r="J97" s="8">
+        <v>53.8</v>
+      </c>
+      <c r="K97" s="31"/>
+      <c r="L97" s="31"/>
+      <c r="M97" s="9">
+        <v>20.422000000000001</v>
+      </c>
+      <c r="N97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O97" s="9">
+        <v>41.950299999999999</v>
+      </c>
+      <c r="P97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>26.98</v>
+      </c>
+      <c r="R97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S97" s="9">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="T97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="U97" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="V97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="W97" s="9">
+        <v>-0.70799999999999996</v>
+      </c>
+      <c r="X97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y97" s="9">
+        <v>7.57</v>
+      </c>
+      <c r="Z97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA97" s="9">
+        <v>3.13</v>
+      </c>
+      <c r="AB97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC97" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="AD97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE97" s="9">
+        <v>2.57</v>
+      </c>
+      <c r="AF97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG97" s="9">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="AH97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI97" s="9">
+        <v>60.19</v>
+      </c>
+      <c r="AJ97" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK97" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9467,7 +12080,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
